--- a/tables/app/Would you be interested in technology that would allow you to know how many people are in a specific place you would like to go?.xlsx
+++ b/tables/app/Would you be interested in technology that would allow you to know how many people are in a specific place you would like to go?.xlsx
@@ -402,10 +402,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C2">
-        <v>63.8</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -413,10 +413,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C3">
-        <v>36.2</v>
+        <v>35.8</v>
       </c>
     </row>
   </sheetData>
